--- a/net18/validation_data/Scenario4.xlsx
+++ b/net18/validation_data/Scenario4.xlsx
@@ -466,7 +466,7 @@
         <v>0.9956562069461997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9749220609664917</v>
+        <v>0.9936515092849731</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>0.991494346668506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9814349412918091</v>
+        <v>0.9919640421867371</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
         <v>0.9925815760907809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9953093528747559</v>
+        <v>0.9891432523727417</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>0.9925882399572185</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9782714247703552</v>
+        <v>1.000004887580872</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>0.9933027674161636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.990480899810791</v>
+        <v>1.00226616859436</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>0.9933519302306293</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9875104427337646</v>
+        <v>0.987801194190979</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         <v>0.9933720764483878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9921861886978149</v>
+        <v>0.990850567817688</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +655,7 @@
         <v>0.993602280421649</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9872426390647888</v>
+        <v>0.9924858212471008</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>0.9939262258265857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9835248589515686</v>
+        <v>0.9884402751922607</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +709,7 @@
         <v>0.993945971069799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9872807860374451</v>
+        <v>0.993089497089386</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +736,7 @@
         <v>0.9943979748559511</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9857987761497498</v>
+        <v>0.9902598261833191</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +763,7 @@
         <v>0.994370784200423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.977681040763855</v>
+        <v>0.9846983551979065</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +790,7 @@
         <v>1.003711375800903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9996722936630249</v>
+        <v>0.9968553185462952</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +817,7 @@
         <v>1.004059126996188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9850577116012573</v>
+        <v>0.997895359992981</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +844,7 @@
         <v>0.9924486838847573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9884669184684753</v>
+        <v>0.9961614012718201</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>0.9923874400941368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9770094156265259</v>
+        <v>0.9920767545700073</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +898,7 @@
         <v>0.9923442746955878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9901746511459351</v>
+        <v>0.9924054741859436</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>0.9923312149522933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9953694939613342</v>
+        <v>0.9957430362701416</v>
       </c>
     </row>
     <row r="20">
@@ -1660,7 +1660,7 @@
         <v>0.9941174913561277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9737982749938965</v>
+        <v>0.9916113018989563</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1687,7 @@
         <v>0.9899501651476943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9802325963973999</v>
+        <v>0.9904076457023621</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1714,7 @@
         <v>0.9910164763862201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.993769645690918</v>
+        <v>0.98773592710495</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1741,7 @@
         <v>0.9910230167193589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9774028658866882</v>
+        <v>0.9979841113090515</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1768,7 @@
         <v>0.9917322072997041</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9893520474433899</v>
+        <v>1.000606536865234</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +1795,7 @@
         <v>0.991781202162361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9862366318702698</v>
+        <v>0.9866828918457031</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +1822,7 @@
         <v>0.9918011852108224</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9911359548568726</v>
+        <v>0.9892284274101257</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +1849,7 @@
         <v>0.9920308938147884</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9858408570289612</v>
+        <v>0.9914258122444153</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +1876,7 @@
         <v>0.9923539865293267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9823427796363831</v>
+        <v>0.9866920709609985</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1903,7 @@
         <v>0.9923737668161881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9858319163322449</v>
+        <v>0.9915301203727722</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +1930,7 @@
         <v>0.9928269699114329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9848188757896423</v>
+        <v>0.988966703414917</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +1957,7 @@
         <v>0.9927998998889018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9765143990516663</v>
+        <v>0.983113706111908</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         <v>1.002157089186763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9982600212097168</v>
+        <v>0.9955123066902161</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2011,7 @@
         <v>1.002505451353746</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9836640954017639</v>
+        <v>0.9960787296295166</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2038,7 @@
         <v>0.9908832632592423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9870726466178894</v>
+        <v>0.9939907193183899</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2065,7 @@
         <v>0.990821934007867</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9757821559906006</v>
+        <v>0.9907526969909668</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2092,7 @@
         <v>0.990778476476316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9888943433761597</v>
+        <v>0.9907030463218689</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2119,7 @@
         <v>0.9907657183366128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9943194985389709</v>
+        <v>0.9944442510604858</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2854,7 @@
         <v>0.9926681780632159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9719618558883667</v>
+        <v>0.990801215171814</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +2881,7 @@
         <v>0.9884942074205832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.978759229183197</v>
+        <v>0.9891700148582458</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +2908,7 @@
         <v>0.9895743739266418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9922604560852051</v>
+        <v>0.9859545826911926</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +2935,7 @@
         <v>0.9895809920522447</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9755662679672241</v>
+        <v>0.9970472455024719</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +2962,7 @@
         <v>0.9902955348144716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9872404932975769</v>
+        <v>0.9992766380310059</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +2989,7 @@
         <v>0.9903447101190952</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9844507575035095</v>
+        <v>0.9849958419799805</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3016,7 @@
         <v>0.9903648081262496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9891895055770874</v>
+        <v>0.9881472587585449</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3043,7 @@
         <v>0.9905952495560812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.984142541885376</v>
+        <v>0.9896688461303711</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3070,7 @@
         <v>0.990919439683152</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9805431365966797</v>
+        <v>0.9856939911842346</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3097,7 @@
         <v>0.990939284756993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9842838644981384</v>
+        <v>0.9900621175765991</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3124,7 @@
         <v>0.9913948582702131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9830453991889954</v>
+        <v>0.9873524308204651</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3151,7 @@
         <v>0.991367630605925</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9746806621551514</v>
+        <v>0.981861412525177</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3178,7 @@
         <v>1.000774972463238</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9963381290435791</v>
+        <v>0.9939532876014709</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3205,7 @@
         <v>1.00112514067508</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9823774695396423</v>
+        <v>0.9948347210884094</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3232,7 @@
         <v>0.9894405838593776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9855750799179077</v>
+        <v>0.9932383894920349</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3259,7 @@
         <v>0.989378966416358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.974209725856781</v>
+        <v>0.9891114830970764</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3286,7 @@
         <v>0.9893355541219654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9873315691947937</v>
+        <v>0.9894618988037109</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3313,7 @@
         <v>0.9893223890507373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9924843311309814</v>
+        <v>0.9929666519165039</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario4.xlsx
+++ b/net18/validation_data/Scenario4.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -441,6 +441,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,7 +481,16 @@
         <v>0.9956562069461997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9936515092849731</v>
+        <v>0.9975649118423462</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9937247037887573</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9942487114884958</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9939124397933483</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +517,16 @@
         <v>0.991494346668506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9919640421867371</v>
+        <v>0.9940235018730164</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9937007427215576</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9937017374150956</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9935125056654215</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +553,16 @@
         <v>0.9925815760907809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9891432523727417</v>
+        <v>0.994796097278595</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9937124252319336</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9938039122923608</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9936844762414694</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +589,16 @@
         <v>0.9925882399572185</v>
       </c>
       <c r="G5" t="n">
-        <v>1.000004887580872</v>
+        <v>0.993896484375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.993661642074585</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9937972011340818</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9937595035880804</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +625,16 @@
         <v>0.9933027674161636</v>
       </c>
       <c r="G6" t="n">
-        <v>1.00226616859436</v>
+        <v>0.9941811561584473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9934757351875305</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9938649233596956</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9938138220459223</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +661,16 @@
         <v>0.9933519302306293</v>
       </c>
       <c r="G7" t="n">
-        <v>0.987801194190979</v>
+        <v>0.9938853979110718</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9937895536422729</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.993877168238681</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9937603436410427</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +697,16 @@
         <v>0.9933720764483878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.990850567817688</v>
+        <v>0.9940674901008606</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9936531186103821</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9938863441752228</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9937184043228626</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +733,16 @@
         <v>0.993602280421649</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9924858212471008</v>
+        <v>0.9943283200263977</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9934903979301453</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9938985135539904</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9938072059303522</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +769,16 @@
         <v>0.9939262258265857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9884402751922607</v>
+        <v>0.9946186542510986</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9934080839157104</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9939343274396578</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9937522038817406</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +805,16 @@
         <v>0.993945971069799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.993089497089386</v>
+        <v>0.9938380718231201</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9935124516487122</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9939341158998262</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9938011411577463</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +841,16 @@
         <v>0.9943979748559511</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9902598261833191</v>
+        <v>0.9946953058242798</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9936211705207825</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9939699313552328</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9938318245112896</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +877,16 @@
         <v>0.994370784200423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9846983551979065</v>
+        <v>0.9938383102416992</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9937409162521362</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9939721863074784</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9938335344195366</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +913,16 @@
         <v>1.003711375800903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9968553185462952</v>
+        <v>0.9975169897079468</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9950545430183411</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9949798073298636</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.99478062056005</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +949,16 @@
         <v>1.004059126996188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.997895359992981</v>
+        <v>0.9985942840576172</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9947940111160278</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9950405652747434</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9948516208678484</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +985,16 @@
         <v>0.9924486838847573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9961614012718201</v>
+        <v>0.9941329956054688</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9936136603355408</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9937832682597182</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9936010111123323</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +1021,16 @@
         <v>0.9923874400941368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9920767545700073</v>
+        <v>0.9944035410881042</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9934131503105164</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9937726762869395</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9935921411961317</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +1057,16 @@
         <v>0.9923442746955878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9924054741859436</v>
+        <v>0.9944289326667786</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9934409856796265</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9937853315710676</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9936011023819447</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +1093,16 @@
         <v>0.9923312149522933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9957430362701416</v>
+        <v>0.9937174916267395</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9933353662490845</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.993779603544176</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9935773424804211</v>
       </c>
     </row>
     <row r="20">
@@ -1592,7 +1769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -1635,6 +1812,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1660,7 +1852,16 @@
         <v>0.9941174913561277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9916113018989563</v>
+        <v>0.9963275194168091</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9922446012496948</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9927920481799234</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9923256225883961</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1888,16 @@
         <v>0.9899501651476943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9904076457023621</v>
+        <v>0.9926695227622986</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9919544458389282</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.99222456725438</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9919021427631378</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1924,16 @@
         <v>0.9910164763862201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.98773592710495</v>
+        <v>0.9933093786239624</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9917682409286499</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9923333267797528</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9920868910849094</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1960,16 @@
         <v>0.9910230167193589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9979841113090515</v>
+        <v>0.9924783706665039</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9917528629302979</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9923269832824668</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9921437371522188</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1996,16 @@
         <v>0.9917322072997041</v>
       </c>
       <c r="G6" t="n">
-        <v>1.000606536865234</v>
+        <v>0.9927784204483032</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.991658091545105</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9923970721791174</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9922917298972607</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +2032,16 @@
         <v>0.991781202162361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9866828918457031</v>
+        <v>0.9924938678741455</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9919619560241699</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9924088460429616</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9922812953591347</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +2068,16 @@
         <v>0.9918011852108224</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9892284274101257</v>
+        <v>0.9926480054855347</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9918528199195862</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.992419658051451</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9922273512929678</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +2104,16 @@
         <v>0.9920308938147884</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9914258122444153</v>
+        <v>0.9929164052009583</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9917550086975098</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9924319278717652</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9923817403614521</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +2140,16 @@
         <v>0.9923539865293267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9866920709609985</v>
+        <v>0.9931668043136597</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.991756796836853</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9924656892219672</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9923104345798492</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +2176,16 @@
         <v>0.9923737668161881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9915301203727722</v>
+        <v>0.9924137592315674</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9917746782302856</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9924672113235948</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.992219515144825</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +2212,16 @@
         <v>0.9928269699114329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.988966703414917</v>
+        <v>0.9932748675346375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9919631481170654</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9925047477988744</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.992371516302228</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +2248,16 @@
         <v>0.9927998998889018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.983113706111908</v>
+        <v>0.9924613237380981</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9920219779014587</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9925087652560451</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.992353668436408</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +2284,16 @@
         <v>1.002157089186763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9955123066902161</v>
+        <v>0.996087908744812</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9932867884635925</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9935337835709764</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9933609012514353</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2320,16 @@
         <v>1.002505451353746</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9960787296295166</v>
+        <v>0.9971036314964294</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9930979609489441</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9935941134127776</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9934268519282341</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2356,16 @@
         <v>0.9908832632592423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9939907193183899</v>
+        <v>0.9927046895027161</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.991805374622345</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9923124706973084</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9920274298638105</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2392,16 @@
         <v>0.990821934007867</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9907526969909668</v>
+        <v>0.9929711818695068</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9916262030601501</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9923024928311004</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9920345675200224</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2428,16 @@
         <v>0.990778476476316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9907030463218689</v>
+        <v>0.9929564595222473</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9915755987167358</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9923152392004456</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9919967800378799</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2464,16 @@
         <v>0.9907657183366128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9944442510604858</v>
+        <v>0.992320716381073</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9914385080337524</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.992306410030156</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9920419789850712</v>
       </c>
     </row>
     <row r="20">
@@ -2786,7 +3140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -2829,6 +3183,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2854,7 +3223,16 @@
         <v>0.9926681780632159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.990801215171814</v>
+        <v>0.9947376847267151</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.990793764591217</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9910289857145024</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9908338226377964</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +3259,16 @@
         <v>0.9884942074205832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9891700148582458</v>
+        <v>0.9911172389984131</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9907561540603638</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9905169528441964</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9904487542808056</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +3295,16 @@
         <v>0.9895743739266418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9859545826911926</v>
+        <v>0.991762638092041</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.990637481212616</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9906388149055246</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9906573742628098</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +3331,16 @@
         <v>0.9895809920522447</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9970472455024719</v>
+        <v>0.9909349083900452</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.990558922290802</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9906353328603542</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9906699694693089</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +3367,16 @@
         <v>0.9902955348144716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9992766380310059</v>
+        <v>0.9912029504776001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9905632734298706</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9907105675812984</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9907280560582876</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +3403,16 @@
         <v>0.9903447101190952</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9849958419799805</v>
+        <v>0.990939199924469</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9908116459846497</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.99072232141887</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9907101131975651</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3439,16 @@
         <v>0.9903648081262496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9881472587585449</v>
+        <v>0.9911137223243713</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.99065101146698</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9907329275712168</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9907309729605913</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3475,16 @@
         <v>0.9905952495560812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9896688461303711</v>
+        <v>0.991344153881073</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.990490198135376</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9907433571308604</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9907716736197472</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3511,16 @@
         <v>0.990919439683152</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9856939911842346</v>
+        <v>0.9916150569915771</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9904554486274719</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9907832359875928</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9907750263810158</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3547,16 @@
         <v>0.990939284756993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9900621175765991</v>
+        <v>0.9908909797668457</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9904032945632935</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9907840527966344</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9907806944102049</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3583,16 @@
         <v>0.9913948582702131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9873524308204651</v>
+        <v>0.9916942119598389</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9906036257743835</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9908205630505528</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9908340889960527</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3619,16 @@
         <v>0.991367630605925</v>
       </c>
       <c r="G13" t="n">
-        <v>0.981861412525177</v>
+        <v>0.9909060001373291</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9906781911849976</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.99082368362839</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.99087786488235</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3655,16 @@
         <v>1.000774972463238</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9939532876014709</v>
+        <v>0.994605541229248</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.99207603931427</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9918727743215692</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.991892758756876</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3691,16 @@
         <v>1.00112514067508</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9948347210884094</v>
+        <v>0.9956146478652954</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9918802380561829</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9919345928434188</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.991925872862339</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3727,16 @@
         <v>0.9894405838593776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9932383894920349</v>
+        <v>0.9911488890647888</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9905741810798645</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9906203502513335</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.990576907992363</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3763,16 @@
         <v>0.989378966416358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9891114830970764</v>
+        <v>0.9913815855979919</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9904745817184448</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9906112752181409</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9905827473849058</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3799,16 @@
         <v>0.9893355541219654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9894618988037109</v>
+        <v>0.9914137721061707</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9903580546379089</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9906207553786884</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.99054323323071</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3835,16 @@
         <v>0.9893223890507373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9929666519165039</v>
+        <v>0.9907498955726624</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9903942346572876</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9906154789465073</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.990569407120347</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario4.xlsx
+++ b/net18/validation_data/Scenario4.xlsx
@@ -481,7 +481,7 @@
         <v>0.9956562069461997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9975649118423462</v>
+        <v>0.9971016645431519</v>
       </c>
       <c r="H2" t="n">
         <v>0.9937247037887573</v>
@@ -517,7 +517,7 @@
         <v>0.991494346668506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9940235018730164</v>
+        <v>0.997994065284729</v>
       </c>
       <c r="H3" t="n">
         <v>0.9937007427215576</v>
@@ -553,7 +553,7 @@
         <v>0.9925815760907809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.994796097278595</v>
+        <v>0.9983851313591003</v>
       </c>
       <c r="H4" t="n">
         <v>0.9937124252319336</v>
@@ -589,7 +589,7 @@
         <v>0.9925882399572185</v>
       </c>
       <c r="G5" t="n">
-        <v>0.993896484375</v>
+        <v>0.9982051849365234</v>
       </c>
       <c r="H5" t="n">
         <v>0.993661642074585</v>
@@ -625,7 +625,7 @@
         <v>0.9933027674161636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9941811561584473</v>
+        <v>0.9981799125671387</v>
       </c>
       <c r="H6" t="n">
         <v>0.9934757351875305</v>
@@ -661,7 +661,7 @@
         <v>0.9933519302306293</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9938853979110718</v>
+        <v>0.9986467361450195</v>
       </c>
       <c r="H7" t="n">
         <v>0.9937895536422729</v>
@@ -697,7 +697,7 @@
         <v>0.9933720764483878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9940674901008606</v>
+        <v>0.9984886646270752</v>
       </c>
       <c r="H8" t="n">
         <v>0.9936531186103821</v>
@@ -733,7 +733,7 @@
         <v>0.993602280421649</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9943283200263977</v>
+        <v>0.9972221255302429</v>
       </c>
       <c r="H9" t="n">
         <v>0.9934903979301453</v>
@@ -769,7 +769,7 @@
         <v>0.9939262258265857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9946186542510986</v>
+        <v>0.9993353486061096</v>
       </c>
       <c r="H10" t="n">
         <v>0.9934080839157104</v>
@@ -805,7 +805,7 @@
         <v>0.993945971069799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9938380718231201</v>
+        <v>0.9978989362716675</v>
       </c>
       <c r="H11" t="n">
         <v>0.9935124516487122</v>
@@ -841,7 +841,7 @@
         <v>0.9943979748559511</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9946953058242798</v>
+        <v>0.9978556036949158</v>
       </c>
       <c r="H12" t="n">
         <v>0.9936211705207825</v>
@@ -877,7 +877,7 @@
         <v>0.994370784200423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9938383102416992</v>
+        <v>0.9979280233383179</v>
       </c>
       <c r="H13" t="n">
         <v>0.9937409162521362</v>
@@ -913,7 +913,7 @@
         <v>1.003711375800903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9975169897079468</v>
+        <v>0.9994798302650452</v>
       </c>
       <c r="H14" t="n">
         <v>0.9950545430183411</v>
@@ -949,7 +949,7 @@
         <v>1.004059126996188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9985942840576172</v>
+        <v>0.999695360660553</v>
       </c>
       <c r="H15" t="n">
         <v>0.9947940111160278</v>
@@ -985,7 +985,7 @@
         <v>0.9924486838847573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9941329956054688</v>
+        <v>0.9974928498268127</v>
       </c>
       <c r="H16" t="n">
         <v>0.9936136603355408</v>
@@ -1021,7 +1021,7 @@
         <v>0.9923874400941368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9944035410881042</v>
+        <v>0.998495876789093</v>
       </c>
       <c r="H17" t="n">
         <v>0.9934131503105164</v>
@@ -1057,7 +1057,7 @@
         <v>0.9923442746955878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9944289326667786</v>
+        <v>0.9980384111404419</v>
       </c>
       <c r="H18" t="n">
         <v>0.9934409856796265</v>
@@ -1093,7 +1093,7 @@
         <v>0.9923312149522933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9937174916267395</v>
+        <v>0.997744619846344</v>
       </c>
       <c r="H19" t="n">
         <v>0.9933353662490845</v>
@@ -1852,7 +1852,7 @@
         <v>0.9941174913561277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9963275194168091</v>
+        <v>0.9957005977630615</v>
       </c>
       <c r="H2" t="n">
         <v>0.9922446012496948</v>
@@ -1888,7 +1888,7 @@
         <v>0.9899501651476943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9926695227622986</v>
+        <v>0.9965415000915527</v>
       </c>
       <c r="H3" t="n">
         <v>0.9919544458389282</v>
@@ -1924,7 +1924,7 @@
         <v>0.9910164763862201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9933093786239624</v>
+        <v>0.9969353675842285</v>
       </c>
       <c r="H4" t="n">
         <v>0.9917682409286499</v>
@@ -1960,7 +1960,7 @@
         <v>0.9910230167193589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9924783706665039</v>
+        <v>0.9967901110649109</v>
       </c>
       <c r="H5" t="n">
         <v>0.9917528629302979</v>
@@ -1996,7 +1996,7 @@
         <v>0.9917322072997041</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9927784204483032</v>
+        <v>0.9967455267906189</v>
       </c>
       <c r="H6" t="n">
         <v>0.991658091545105</v>
@@ -2032,7 +2032,7 @@
         <v>0.991781202162361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9924938678741455</v>
+        <v>0.9972108602523804</v>
       </c>
       <c r="H7" t="n">
         <v>0.9919619560241699</v>
@@ -2068,7 +2068,7 @@
         <v>0.9918011852108224</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9926480054855347</v>
+        <v>0.9970960021018982</v>
       </c>
       <c r="H8" t="n">
         <v>0.9918528199195862</v>
@@ -2104,7 +2104,7 @@
         <v>0.9920308938147884</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9929164052009583</v>
+        <v>0.9958401918411255</v>
       </c>
       <c r="H9" t="n">
         <v>0.9917550086975098</v>
@@ -2140,7 +2140,7 @@
         <v>0.9923539865293267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9931668043136597</v>
+        <v>0.9978943467140198</v>
       </c>
       <c r="H10" t="n">
         <v>0.991756796836853</v>
@@ -2176,7 +2176,7 @@
         <v>0.9923737668161881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9924137592315674</v>
+        <v>0.9964532852172852</v>
       </c>
       <c r="H11" t="n">
         <v>0.9917746782302856</v>
@@ -2212,7 +2212,7 @@
         <v>0.9928269699114329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9932748675346375</v>
+        <v>0.9964525103569031</v>
       </c>
       <c r="H12" t="n">
         <v>0.9919631481170654</v>
@@ -2248,7 +2248,7 @@
         <v>0.9927998998889018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9924613237380981</v>
+        <v>0.996525764465332</v>
       </c>
       <c r="H13" t="n">
         <v>0.9920219779014587</v>
@@ -2284,7 +2284,7 @@
         <v>1.002157089186763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.996087908744812</v>
+        <v>0.9981326460838318</v>
       </c>
       <c r="H14" t="n">
         <v>0.9932867884635925</v>
@@ -2320,7 +2320,7 @@
         <v>1.002505451353746</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9971036314964294</v>
+        <v>0.9983751177787781</v>
       </c>
       <c r="H15" t="n">
         <v>0.9930979609489441</v>
@@ -2356,7 +2356,7 @@
         <v>0.9908832632592423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9927046895027161</v>
+        <v>0.9960439205169678</v>
       </c>
       <c r="H16" t="n">
         <v>0.991805374622345</v>
@@ -2392,7 +2392,7 @@
         <v>0.990821934007867</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9929711818695068</v>
+        <v>0.9970303177833557</v>
       </c>
       <c r="H17" t="n">
         <v>0.9916262030601501</v>
@@ -2428,7 +2428,7 @@
         <v>0.990778476476316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9929564595222473</v>
+        <v>0.9965879321098328</v>
       </c>
       <c r="H18" t="n">
         <v>0.9915755987167358</v>
@@ -2464,7 +2464,7 @@
         <v>0.9907657183366128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.992320716381073</v>
+        <v>0.9963411092758179</v>
       </c>
       <c r="H19" t="n">
         <v>0.9914385080337524</v>
@@ -3223,7 +3223,7 @@
         <v>0.9926681780632159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9947376847267151</v>
+        <v>0.9940349459648132</v>
       </c>
       <c r="H2" t="n">
         <v>0.990793764591217</v>
@@ -3259,7 +3259,7 @@
         <v>0.9884942074205832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9911172389984131</v>
+        <v>0.9948811531066895</v>
       </c>
       <c r="H3" t="n">
         <v>0.9907561540603638</v>
@@ -3295,7 +3295,7 @@
         <v>0.9895743739266418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.991762638092041</v>
+        <v>0.9952586889266968</v>
       </c>
       <c r="H4" t="n">
         <v>0.990637481212616</v>
@@ -3331,7 +3331,7 @@
         <v>0.9895809920522447</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9909349083900452</v>
+        <v>0.9950906038284302</v>
       </c>
       <c r="H5" t="n">
         <v>0.990558922290802</v>
@@ -3367,7 +3367,7 @@
         <v>0.9902955348144716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9912029504776001</v>
+        <v>0.9950611591339111</v>
       </c>
       <c r="H6" t="n">
         <v>0.9905632734298706</v>
@@ -3403,7 +3403,7 @@
         <v>0.9903447101190952</v>
       </c>
       <c r="G7" t="n">
-        <v>0.990939199924469</v>
+        <v>0.9955226182937622</v>
       </c>
       <c r="H7" t="n">
         <v>0.9908116459846497</v>
@@ -3439,7 +3439,7 @@
         <v>0.9903648081262496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9911137223243713</v>
+        <v>0.9953632950782776</v>
       </c>
       <c r="H8" t="n">
         <v>0.99065101146698</v>
@@ -3475,7 +3475,7 @@
         <v>0.9905952495560812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.991344153881073</v>
+        <v>0.9941365718841553</v>
       </c>
       <c r="H9" t="n">
         <v>0.990490198135376</v>
@@ -3511,7 +3511,7 @@
         <v>0.990919439683152</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9916150569915771</v>
+        <v>0.9961778521537781</v>
       </c>
       <c r="H10" t="n">
         <v>0.9904554486274719</v>
@@ -3547,7 +3547,7 @@
         <v>0.990939284756993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9908909797668457</v>
+        <v>0.9948064684867859</v>
       </c>
       <c r="H11" t="n">
         <v>0.9904032945632935</v>
@@ -3583,7 +3583,7 @@
         <v>0.9913948582702131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9916942119598389</v>
+        <v>0.9947551488876343</v>
       </c>
       <c r="H12" t="n">
         <v>0.9906036257743835</v>
@@ -3619,7 +3619,7 @@
         <v>0.991367630605925</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9909060001373291</v>
+        <v>0.9948323369026184</v>
       </c>
       <c r="H13" t="n">
         <v>0.9906781911849976</v>
@@ -3655,7 +3655,7 @@
         <v>1.000774972463238</v>
       </c>
       <c r="G14" t="n">
-        <v>0.994605541229248</v>
+        <v>0.9964390397071838</v>
       </c>
       <c r="H14" t="n">
         <v>0.99207603931427</v>
@@ -3691,7 +3691,7 @@
         <v>1.00112514067508</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9956146478652954</v>
+        <v>0.9966772794723511</v>
       </c>
       <c r="H15" t="n">
         <v>0.9918802380561829</v>
@@ -3727,7 +3727,7 @@
         <v>0.9894405838593776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9911488890647888</v>
+        <v>0.9943928122520447</v>
       </c>
       <c r="H16" t="n">
         <v>0.9905741810798645</v>
@@ -3763,7 +3763,7 @@
         <v>0.989378966416358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9913815855979919</v>
+        <v>0.9953623414039612</v>
       </c>
       <c r="H17" t="n">
         <v>0.9904745817184448</v>
@@ -3799,7 +3799,7 @@
         <v>0.9893355541219654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9914137721061707</v>
+        <v>0.9949227571487427</v>
       </c>
       <c r="H18" t="n">
         <v>0.9903580546379089</v>
@@ -3835,7 +3835,7 @@
         <v>0.9893223890507373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9907498955726624</v>
+        <v>0.9946147799491882</v>
       </c>
       <c r="H19" t="n">
         <v>0.9903942346572876</v>
